--- a/biology/Zoologie/Acanthobodilus/Acanthobodilus.xlsx
+++ b/biology/Zoologie/Acanthobodilus/Acanthobodilus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acanthobodilus est un genre d'insectes coléoptères qui, selon les sources, fait partie de la famille des Aphodiidae[1] ou des Scarabaeidae[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acanthobodilus est un genre d'insectes coléoptères qui, selon les sources, fait partie de la famille des Aphodiidae ou des Scarabaeidae.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (28 juillet 2014)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (28 juillet 2014) :
 Acanthobodilus languidulus (Schmidt, 1916)  
 Acanthobodilus immundus (Creutzer, 1799) 
-Selon Fauna Europaea                                      (28 juillet 2014)[4] :
+Selon Fauna Europaea                                      (28 juillet 2014) :
 Acanthobodilus crimensis (W. Koshantschikov 1913)
 Acanthobodilus immundus (Creutzer, 1799)</t>
         </is>
@@ -546,9 +560,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Acanthobodilus Dellacasa (d), 1983[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Acanthobodilus Dellacasa (d), 1983.
 </t>
         </is>
       </c>
